--- a/ResultadoEleicoesDistritos/BRAGANÇA_TORRE DE MONCORVO.xlsx
+++ b/ResultadoEleicoesDistritos/BRAGANÇA_TORRE DE MONCORVO.xlsx
@@ -597,64 +597,64 @@
         <v>2271</v>
       </c>
       <c r="H2" t="n">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="I2" t="n">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="J2" t="n">
-        <v>957</v>
+        <v>894</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="M2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N2" t="n">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="S2" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="T2" t="n">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="U2" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="V2" t="n">
-        <v>1441</v>
+        <v>1425</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>1465</v>
+        <v>1471</v>
       </c>
       <c r="Y2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
